--- a/Config/W_物品.xlsx
+++ b/Config/W_物品.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13140"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="基础信息" sheetId="1" r:id="rId1"/>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
